--- a/biology/Médecine/Saveria_Campo/Saveria_Campo.xlsx
+++ b/biology/Médecine/Saveria_Campo/Saveria_Campo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Saveria Campo (née en 1947), connue sous le nom de Saveria, est une oncologue italienne, connue pour être la première personne à avoir démontré l'efficacité d'un vaccin contre le papillomavirus[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Saveria Campo (née en 1947), connue sous le nom de Saveria, est une oncologue italienne, connue pour être la première personne à avoir démontré l'efficacité d'un vaccin contre le papillomavirus.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Parcours professionnel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Campo est diplômée summa cum laude de l'Université de Palerme en 1969, puis a obtenu un doctorat de l'Université d'Édimbourg en 1973[2].
-De 1973 à 1976, elle a travaillé au département de génétique d'Edimbourg et de 1976 à 1981 au département de zoologie[2].
-En 1982, elle a pris un poste à la tête du groupe de recherche sur le papillomavirus à l'institut Beatson pour la recherche sur le cancer à l'Université de Glasgow. Elle y est devenue professeur en 1992 et en 1999, elle est devenue professeur d'oncologie à l'Institut de médecine comparée de Glasgow[2],[1].
-Elle a siégé au conseil d'administration du Royal Society Research Grants Scheme de 2008 à 2009[3].
-Elle a été élue membre de la Royal Society of Edinburgh (FRSE) en 2006[2],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campo est diplômée summa cum laude de l'Université de Palerme en 1969, puis a obtenu un doctorat de l'Université d'Édimbourg en 1973.
+De 1973 à 1976, elle a travaillé au département de génétique d'Edimbourg et de 1976 à 1981 au département de zoologie.
+En 1982, elle a pris un poste à la tête du groupe de recherche sur le papillomavirus à l'institut Beatson pour la recherche sur le cancer à l'Université de Glasgow. Elle y est devenue professeur en 1992 et en 1999, elle est devenue professeur d'oncologie à l'Institut de médecine comparée de Glasgow,.
+Elle a siégé au conseil d'administration du Royal Society Research Grants Scheme de 2008 à 2009.
+Elle a été élue membre de la Royal Society of Edinburgh (FRSE) en 2006,.
 </t>
         </is>
       </c>
